--- a/conception/versionning.xlsx
+++ b/conception/versionning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="3105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Version 0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t xml:space="preserve">Fonctionalité </t>
   </si>
@@ -68,13 +68,16 @@
   </si>
   <si>
     <t>Terminé</t>
+  </si>
+  <si>
+    <t>En cours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +107,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +132,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -132,21 +147,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="2" builtinId="26"/>
   </cellStyles>
@@ -485,7 +503,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,8 +552,8 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,8 +566,8 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,8 +580,8 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,8 +594,8 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/conception/versionning.xlsx
+++ b/conception/versionning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Version 0" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/conception/versionning.xlsx
+++ b/conception/versionning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="4305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Version 0" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
